--- a/python/Config.xlsx
+++ b/python/Config.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\CodeGenerator\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749F5627-DF8A-4B61-AD99-7D09C793D05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245788A2-7930-4A10-B550-309B76ABABC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputSignal" sheetId="1" r:id="rId1"/>
+    <sheet name="Condition" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="90">
   <si>
     <t>SignalName</t>
   </si>
@@ -146,6 +147,150 @@
   </si>
   <si>
     <t>VcuGearPosn_Pre_SIGNALNUM</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Threshold</t>
+  </si>
+  <si>
+    <t>ThresholdType</t>
+  </si>
+  <si>
+    <t>EVT</t>
+  </si>
+  <si>
+    <t>NEQ</t>
+  </si>
+  <si>
+    <t>CONDITION_TYPE_NUMBER</t>
+  </si>
+  <si>
+    <t>LGL_SEE_ON</t>
+  </si>
+  <si>
+    <t>BDCSEEDSIGNAL_NEQ_0</t>
+  </si>
+  <si>
+    <t>CHANGE</t>
+  </si>
+  <si>
+    <t>CONDITION_TYPE_SIGNAL</t>
+  </si>
+  <si>
+    <t>LGL_SEE_REQ2NO</t>
+  </si>
+  <si>
+    <t>BDCSEEDSIGNAL_CHANGE_BdcSeedsignal_PRE_SIGNALNUM</t>
+  </si>
+  <si>
+    <t>EQ</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>BDCSEEDSIGNAL_EQ_0</t>
+  </si>
+  <si>
+    <t>LGL_Normal_OFF</t>
+  </si>
+  <si>
+    <t>LGL_WEL_ON</t>
+  </si>
+  <si>
+    <t>BDCWLCMSIGNAL_NEQ_0</t>
+  </si>
+  <si>
+    <t>BDCWLCMSIGNAL_EQ_0</t>
+  </si>
+  <si>
+    <t>LGL_DLC_TUL_ON</t>
+  </si>
+  <si>
+    <t>DLC_U8TURNLIGHTTWICE_CHANGE_DLC_u8TurnLightTwice_PRE_SIGNALNUM</t>
+  </si>
+  <si>
+    <t>LGL_PRM_EEP_ON</t>
+  </si>
+  <si>
+    <t>EEP_LOGO_ENABLE_FLAG_EQ_1</t>
+  </si>
+  <si>
+    <t>LGL_EEP_ENABLE2DISABLE</t>
+  </si>
+  <si>
+    <t>EEP_LOGO_ENABLE_FLAG_CHANGE_EEP_LOGO_ENABLE_FLAG_PRE_SIGNALNUM</t>
+  </si>
+  <si>
+    <t>EEP_LOGO_ENABLE_FLAG_EQ_0</t>
+  </si>
+  <si>
+    <t>ESPAUTOHOLDACTVSTS_EQ_0</t>
+  </si>
+  <si>
+    <t>LGL_ESP_POL_ON</t>
+  </si>
+  <si>
+    <t>ESPAUTOHOLDACTVSTS_EQ_1</t>
+  </si>
+  <si>
+    <t>LGL_ESP_LBL_ON</t>
+  </si>
+  <si>
+    <t>PLB_U8LBSTS_EQ_1</t>
+  </si>
+  <si>
+    <t>PLB_U8LBSTS_EQ_0</t>
+  </si>
+  <si>
+    <t>LGL_VCU_LBL_ON</t>
+  </si>
+  <si>
+    <t>PPL_BOOLPOSNLAMPSTS_EQ_0</t>
+  </si>
+  <si>
+    <t>PPL_BOOLPOSNLAMPSTS_EQ_1</t>
+  </si>
+  <si>
+    <t>LGL_VCU_POL_ON</t>
+  </si>
+  <si>
+    <t>PRM_U8POWERSTS_EQ_2</t>
+  </si>
+  <si>
+    <t>LGL_PRM_ON2NOTON</t>
+  </si>
+  <si>
+    <t>PRM_U8POWERSTS_CHANGE_PRM_u8PowerSts_PRE_SIGNALNUM</t>
+  </si>
+  <si>
+    <t>PRM_U8POWERSTS_EQ_0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>PRM_U8POWERSTS_PRE_EQ_2</t>
+  </si>
+  <si>
+    <t>VCUGEARPOSN_EQ_0</t>
+  </si>
+  <si>
+    <t>VCUGEARPOSN_EQ_1</t>
+  </si>
+  <si>
+    <t>VCUGEARPOSN_NEQ_DLC_U8TURNLIGHTTWICE</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>VCUGEARPOSN_EQ_3</t>
+  </si>
+  <si>
+    <t>VCUGEARPOSN_PRE_EQ_2</t>
   </si>
 </sst>
 </file>
@@ -161,17 +306,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -211,7 +357,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -518,12 +664,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="1" max="1" width="79.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -736,7 +885,651 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="68.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/python/Config.xlsx
+++ b/python/Config.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\CodeGenerator\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245788A2-7930-4A10-B550-309B76ABABC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28523282-AE66-4027-8F4B-11CE179F0D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputSignal" sheetId="1" r:id="rId1"/>
     <sheet name="Condition" sheetId="2" r:id="rId2"/>
+    <sheet name="EVT" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="124">
   <si>
     <t>SignalName</t>
   </si>
@@ -209,7 +210,7 @@
     <t>LGL_DLC_TUL_ON</t>
   </si>
   <si>
-    <t>DLC_U8TURNLIGHTTWICE_CHANGE_DLC_u8TurnLightTwice_PRE_SIGNALNUM</t>
+    <t>DLC_U8TURNLIGHTTWICE_CHANGE_DLC_U8TURNLIGHTTWICE_PRE_SIGNALNUM</t>
   </si>
   <si>
     <t>LGL_PRM_EEP_ON</t>
@@ -291,6 +292,108 @@
   </si>
   <si>
     <t>VCUGEARPOSN_PRE_EQ_2</t>
+  </si>
+  <si>
+    <t>EVTName</t>
+  </si>
+  <si>
+    <t>Action1</t>
+  </si>
+  <si>
+    <t>Action2</t>
+  </si>
+  <si>
+    <t>Condition0</t>
+  </si>
+  <si>
+    <t>Condition1</t>
+  </si>
+  <si>
+    <t>Condition2</t>
+  </si>
+  <si>
+    <t>Condition3</t>
+  </si>
+  <si>
+    <t>Condition4</t>
+  </si>
+  <si>
+    <t>Condition5</t>
+  </si>
+  <si>
+    <t>Condition6</t>
+  </si>
+  <si>
+    <t>Condition7</t>
+  </si>
+  <si>
+    <t>Condition8</t>
+  </si>
+  <si>
+    <t>LGL_Set(ON)</t>
+  </si>
+  <si>
+    <t>addTimer(LGL_DLC_1500ms_TimeOut,Counter1500ms)</t>
+  </si>
+  <si>
+    <t>addTimer(LGL_PRM_350ms_TimeOut,Counter350ms)</t>
+  </si>
+  <si>
+    <t>PRM_U8POWERSTS_CHANGE_PRM_U8POWERSTS_PRE_SIGNALNUM</t>
+  </si>
+  <si>
+    <t>addTimer(LGL_EEP_350ms_TimeOut,Counter350ms)</t>
+  </si>
+  <si>
+    <t>addTimer(LGL_SEE_350ms_TimeOut,Counter350ms)</t>
+  </si>
+  <si>
+    <t>BDCSEEDSIGNAL_CHANGE_BDCSEEDSIGNAL_PRE_SIGNALNUM</t>
+  </si>
+  <si>
+    <t>LGL_DLC_TIMEOUT</t>
+  </si>
+  <si>
+    <t>delTimer(LGL_DLC_1500ms_TimeOut)</t>
+  </si>
+  <si>
+    <t>LGL_PRM_TIMEOUT</t>
+  </si>
+  <si>
+    <t>delTimer(LGL_PRM_350ms_TimeOut)</t>
+  </si>
+  <si>
+    <t>LGL_EEP_TIMEOUT</t>
+  </si>
+  <si>
+    <t>delTimer(LGL_EEP_350ms_TimeOut)</t>
+  </si>
+  <si>
+    <t>LGL_SEE_TIMEOUT</t>
+  </si>
+  <si>
+    <t>delTimer(LGL_SEE_350ms_TimeOut)</t>
+  </si>
+  <si>
+    <t>LGL_Normal_OFF1()</t>
+  </si>
+  <si>
+    <t>LGL_Normal_OFF2()</t>
+  </si>
+  <si>
+    <t>LGL_Normal_OFF1</t>
+  </si>
+  <si>
+    <t>LGL_Set(OFF)</t>
+  </si>
+  <si>
+    <t>PRM_U8POWERSTS_CHANGETO_0</t>
+  </si>
+  <si>
+    <t>TIMEFLAGNUM_EQ_0</t>
+  </si>
+  <si>
+    <t>LGL_Normal_OFF2</t>
   </si>
 </sst>
 </file>
@@ -306,18 +409,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -357,7 +460,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -665,14 +768,14 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection sqref="A1:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.33203125" customWidth="1"/>
-    <col min="2" max="2" width="27.21875" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -885,7 +988,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -894,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1529,7 +1632,332 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="68.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/python/Config.xlsx
+++ b/python/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\CodeGenerator\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6964FC-8D53-4491-8AED-A478DEDD2B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3416FAC3-A707-442B-82B4-DD31AA336F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1320" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputSignal" sheetId="1" r:id="rId1"/>
@@ -1945,7 +1945,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2410,7 +2412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/python/Config.xlsx
+++ b/python/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\CodeGenerator\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5428A0-3B17-4C1B-9F21-1530CC13B77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AB3F5A-08A8-457F-BB00-03B80A26E86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputSignal" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="198">
   <si>
     <t>SignalName</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Symbol</t>
   </si>
   <si>
-    <t>Threshold</t>
-  </si>
-  <si>
     <t>ThresholdType</t>
   </si>
   <si>
@@ -377,9 +374,6 @@
     <t>LGL_Set(ON)</t>
   </si>
   <si>
-    <t>addTimer(LGL_DLC_1500ms_TimeOut,Counter1500ms)</t>
-  </si>
-  <si>
     <t>addTimer(LGL_PRM_350ms_TimeOut,Counter350ms)</t>
   </si>
   <si>
@@ -570,9 +564,6 @@
   </si>
   <si>
     <t>int32</t>
-  </si>
-  <si>
-    <t>GREATEROREQ</t>
   </si>
   <si>
     <t>int16</t>
@@ -613,6 +604,34 @@
   </si>
   <si>
     <t>EEP_LOGO_ENABLE_FLAG_Pre_SIGNALNUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BdcSeedsignal_Pre_SIGNALNUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GREATEROREQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Threshold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BDCSEEDSIGNAL_EQ_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addTimer(LGL_DLC_1500ms_TimeOut,Counter1500ms)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMEFLAGNUM_EQ_0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1032,7 +1051,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
@@ -1307,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1323,22 +1342,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1346,19 +1365,19 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1366,19 +1385,19 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1386,19 +1405,19 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1406,19 +1425,19 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1426,19 +1445,19 @@
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1446,19 +1465,19 @@
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1466,19 +1485,19 @@
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1486,19 +1505,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1506,19 +1525,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1526,19 +1545,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1546,19 +1565,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1566,19 +1585,19 @@
         <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1586,19 +1605,19 @@
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1606,19 +1625,19 @@
         <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1626,19 +1645,19 @@
         <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1646,19 +1665,19 @@
         <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1666,19 +1685,19 @@
         <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1686,19 +1705,19 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1706,19 +1725,19 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1726,19 +1745,19 @@
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1746,19 +1765,19 @@
         <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1766,19 +1785,19 @@
         <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1786,19 +1805,19 @@
         <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1806,19 +1825,19 @@
         <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1826,19 +1845,19 @@
         <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1846,19 +1865,19 @@
         <v>38</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1866,19 +1885,19 @@
         <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1886,19 +1905,19 @@
         <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1906,19 +1925,19 @@
         <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1926,19 +1945,19 @@
         <v>40</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1951,7 +1970,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1970,52 +1991,52 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -2028,14 +2049,14 @@
     </row>
     <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -2048,17 +2069,17 @@
     </row>
     <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -2070,17 +2091,17 @@
     </row>
     <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -2092,17 +2113,17 @@
     </row>
     <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -2114,17 +2135,17 @@
     </row>
     <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -2136,17 +2157,17 @@
     </row>
     <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -2158,16 +2179,16 @@
     </row>
     <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -2180,17 +2201,17 @@
     </row>
     <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -2202,20 +2223,20 @@
     </row>
     <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -2226,17 +2247,17 @@
     </row>
     <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -2248,10 +2269,10 @@
     </row>
     <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2266,10 +2287,10 @@
     </row>
     <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2284,10 +2305,10 @@
     </row>
     <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2302,10 +2323,10 @@
     </row>
     <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2320,13 +2341,13 @@
     </row>
     <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2340,69 +2361,69 @@
     </row>
     <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="L19" s="1"/>
     </row>
@@ -2426,57 +2447,57 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1">
         <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B3" s="1">
         <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B4" s="1">
         <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B5" s="1">
         <v>150</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2502,135 +2523,135 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2643,7 +2664,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2655,16 +2678,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2672,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2680,25 +2703,25 @@
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2712,7 +2735,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2725,16 +2748,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2742,13 +2765,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2756,13 +2779,13 @@
         <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2770,59 +2793,59 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2830,11 +2853,11 @@
         <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2844,27 +2867,27 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2874,7 +2897,7 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2882,7 +2905,7 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2890,7 +2913,7 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2898,7 +2921,7 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2906,7 +2929,7 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2914,7 +2937,7 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2922,7 +2945,7 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2930,7 +2953,7 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2938,7 +2961,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2946,7 +2969,7 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2954,7 +2977,7 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2962,7 +2985,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2970,7 +2993,7 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2978,7 +3001,7 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/python/Config.xlsx
+++ b/python/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\CodeGenerator\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AB3F5A-08A8-457F-BB00-03B80A26E86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099C8F02-C760-4D56-BA1F-ED798D57831C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputSignal" sheetId="1" r:id="rId1"/>
@@ -533,13 +533,7 @@
     <t>Unnamed: 3</t>
   </si>
   <si>
-    <t>LGL_Set(Status)</t>
-  </si>
-  <si>
     <t>addTimer(Flag,Time)</t>
-  </si>
-  <si>
-    <t>Add_Timer(Time, &amp;EVT_flag-&gt;TimeOutFlag[Flag])</t>
   </si>
   <si>
     <t>EVT_flag-&gt;TimeOutFlagNum++</t>
@@ -632,6 +626,14 @@
   </si>
   <si>
     <t>TIMEFLAGNUM_EQ_0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGL_Set(Status)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add_Timer(Time, &amp;EVT_flag-&gt;TimeOutFlag[Flag])</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1051,7 +1053,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
@@ -1342,22 +1344,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1388,10 +1390,10 @@
         <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>64</v>
@@ -1417,7 +1419,7 @@
         <v>64</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1970,7 +1972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -2185,7 +2187,7 @@
         <v>114</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>74</v>
@@ -2423,7 +2425,7 @@
         <v>79</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L19" s="1"/>
     </row>
@@ -2665,7 +2667,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2695,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2703,25 +2705,25 @@
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2734,8 +2736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2748,7 +2750,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>55</v>
@@ -2757,7 +2759,7 @@
         <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2793,7 +2795,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -2802,10 +2804,10 @@
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -2814,10 +2816,10 @@
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
@@ -2826,10 +2828,10 @@
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
@@ -2838,7 +2840,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>62</v>
@@ -2853,7 +2855,7 @@
         <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
@@ -2872,7 +2874,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2882,7 +2884,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>

--- a/python/Config.xlsx
+++ b/python/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pytest\CodeGenerator\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099C8F02-C760-4D56-BA1F-ED798D57831C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153CA708-BB9A-4461-9962-0E150CC67CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputSignal" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="205">
   <si>
     <t>SignalName</t>
   </si>
@@ -158,9 +158,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>output1</t>
-  </si>
-  <si>
     <t>output2</t>
   </si>
   <si>
@@ -338,15 +335,6 @@
     <t>EVTName</t>
   </si>
   <si>
-    <t>Action1</t>
-  </si>
-  <si>
-    <t>Action2</t>
-  </si>
-  <si>
-    <t>Condition0</t>
-  </si>
-  <si>
     <t>Condition1</t>
   </si>
   <si>
@@ -374,21 +362,9 @@
     <t>LGL_Set(ON)</t>
   </si>
   <si>
-    <t>addTimer(LGL_PRM_350ms_TimeOut,Counter350ms)</t>
-  </si>
-  <si>
-    <t>addTimer(LGL_EEP_350ms_TimeOut,Counter350ms)</t>
-  </si>
-  <si>
-    <t>addTimer(LGL_SEE_350ms_TimeOut,Counter350ms)</t>
-  </si>
-  <si>
     <t>LGL_DLC_TIMEOUT</t>
   </si>
   <si>
-    <t>delTimer(LGL_DLC_1500ms_TimeOut)</t>
-  </si>
-  <si>
     <t>LGL_PRM_TIMEOUT</t>
   </si>
   <si>
@@ -405,12 +381,6 @@
   </si>
   <si>
     <t>delTimer(LGL_SEE_350ms_TimeOut)</t>
-  </si>
-  <si>
-    <t>LGL_Normal_OFF1()</t>
-  </si>
-  <si>
-    <t>LGL_Normal_OFF2()</t>
   </si>
   <si>
     <t>LGL_Normal_OFF1</t>
@@ -621,10 +591,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>addTimer(LGL_DLC_1500ms_TimeOut,Counter1500ms)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TIMEFLAGNUM_EQ_0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -634,6 +600,78 @@
   </si>
   <si>
     <t>Add_Timer(Time, &amp;EVT_flag-&gt;TimeOutFlag[Flag])</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestFun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestAction()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestAction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>output1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRM_u8PowerSts_Pre</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRM_u8PowerSts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLB_u8LBSts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGL_Set(ON);addTimer(LGL_DLC_1500ms_TimeOut,Counter1500ms)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGL_Normal_OFF1();LGL_Normal_OFF2()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addTimer(LGL_PRM_350ms_TimeOut,Counter350ms)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addTimer(LGL_EEP_350ms_TimeOut,Counter350ms)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addTimer(LGL_SEE_350ms_TimeOut,Counter350ms)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>delTimer(LGL_DLC_1500ms_TimeOut)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPL_boolPosnLampSts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BdcSeedsignal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetNum(PRM_u8PowerSts,2);SetNum(PLB_u8LBSts,3);SetNum(BdcSeedsignal,3)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -991,7 +1029,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1041,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1014,7 +1052,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>202</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -1053,12 +1091,12 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
@@ -1146,7 +1184,7 @@
     </row>
     <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
@@ -1168,7 +1206,7 @@
     </row>
     <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -1179,7 +1217,7 @@
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
@@ -1221,7 +1259,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1243,7 +1283,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>9</v>
@@ -1254,7 +1294,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -1265,10 +1305,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C4" s="1">
         <v>16</v>
@@ -1276,10 +1316,10 @@
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C5" s="1">
         <v>5.4</v>
@@ -1287,21 +1327,21 @@
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C7" s="1">
         <v>10233333</v>
@@ -1309,10 +1349,10 @@
     </row>
     <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C8" s="1">
         <v>45</v>
@@ -1328,7 +1368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1344,22 +1384,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1367,19 +1407,19 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1387,19 +1427,19 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1407,19 +1447,19 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1427,19 +1467,19 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1447,19 +1487,19 @@
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1467,19 +1507,19 @@
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1487,19 +1527,19 @@
         <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1507,19 +1547,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1527,19 +1567,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1547,19 +1587,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1567,19 +1607,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1587,19 +1627,19 @@
         <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1607,19 +1647,19 @@
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1627,19 +1667,19 @@
         <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1647,19 +1687,19 @@
         <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1667,19 +1707,19 @@
         <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1687,19 +1727,19 @@
         <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1707,19 +1747,19 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1727,19 +1767,19 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1747,19 +1787,19 @@
         <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1767,19 +1807,19 @@
         <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="1">
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1787,19 +1827,19 @@
         <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1807,19 +1847,19 @@
         <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1827,19 +1867,19 @@
         <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1847,19 +1887,19 @@
         <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1867,19 +1907,19 @@
         <v>38</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1887,19 +1927,19 @@
         <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1907,19 +1947,19 @@
         <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1927,19 +1967,19 @@
         <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
@@ -1947,19 +1987,19 @@
         <v>40</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1970,76 +2010,72 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.44140625" customWidth="1"/>
-    <col min="2" max="2" width="58.77734375" customWidth="1"/>
-    <col min="3" max="3" width="61.21875" customWidth="1"/>
-    <col min="4" max="5" width="68.44140625" customWidth="1"/>
-    <col min="6" max="6" width="36" customWidth="1"/>
-    <col min="7" max="7" width="34.77734375" customWidth="1"/>
-    <col min="8" max="8" width="25.21875" customWidth="1"/>
-    <col min="9" max="9" width="33.5546875" customWidth="1"/>
-    <col min="10" max="10" width="36" customWidth="1"/>
-    <col min="11" max="11" width="25.21875" customWidth="1"/>
-    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="2" max="2" width="86.21875" customWidth="1"/>
+    <col min="3" max="4" width="68.44140625" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="6" width="34.77734375" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" customWidth="1"/>
+    <col min="8" max="8" width="33.5546875" customWidth="1"/>
+    <col min="9" max="9" width="36" customWidth="1"/>
+    <col min="10" max="10" width="25.21875" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -2047,19 +2083,18 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -2067,131 +2102,123 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -2199,82 +2226,78 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2285,14 +2308,13 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2303,14 +2325,13 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -2321,14 +2342,13 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2339,18 +2359,15 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>127</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -2359,75 +2376,88 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>119</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="D19" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="L19" s="1"/>
+        <v>184</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2439,7 +2469,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2449,57 +2481,57 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B2" s="1">
         <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B3" s="1">
         <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B4" s="1">
         <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B5" s="1">
         <v>150</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2525,135 +2557,135 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2680,16 +2712,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2697,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2705,25 +2737,25 @@
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2736,7 +2768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -2750,16 +2782,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2767,27 +2799,27 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2795,101 +2827,101 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2899,7 +2931,7 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2907,7 +2939,7 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2915,7 +2947,7 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2923,7 +2955,7 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2931,7 +2963,7 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2939,7 +2971,7 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2947,7 +2979,7 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2955,7 +2987,7 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2963,7 +2995,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2971,7 +3003,7 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2979,7 +3011,7 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2987,7 +3019,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -2995,7 +3027,7 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
@@ -3003,7 +3035,7 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
